--- a/Template/src/reports/SIGN UP FLOW FROM HOME PAGE/SIGN UP FLOW FROM HOME PAGE [TEMP].xlsx
+++ b/Template/src/reports/SIGN UP FLOW FROM HOME PAGE/SIGN UP FLOW FROM HOME PAGE [TEMP].xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="137">
   <si>
     <t>Result of SIGN UP FLOW FROM HOME PAGE</t>
   </si>
@@ -22,7 +22,7 @@
     <t>Start</t>
   </si>
   <si>
-    <t>2021-03-31 15:56:49</t>
+    <t>2021-03-31 17:16:54</t>
   </si>
   <si>
     <t>#</t>
@@ -403,7 +403,7 @@
     <t>Đăng ký khi uncheck Tôi đồng ý...</t>
   </si>
   <si>
-    <t>tuananhle_20210331160403, 123456</t>
+    <t>tuananhle_20210331172408, 123456</t>
   </si>
   <si>
     <t>http://dev-ta.mooo.com</t>
@@ -418,33 +418,13 @@
     <t>Đăng ký khi check Tôi đồng ý... Chuyển đến trang nạp tiền nếu đăng nhập thành công</t>
   </si>
   <si>
-    <t>tuananhle_20210331160412, 123456</t>
+    <t>tuananhle_20210331172417, 123456</t>
   </si>
   <si>
     <t>http://dev-ta.mooo.com/account/deposit</t>
   </si>
   <si>
-    <t>Click show/hide password icon sẽ hiển thị những ký tự đã nhập hoặc ẩn đi</t>
-  </si>
-  <si>
-    <t>SHOW PASS</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>INPUT: SHOW PASS
-Type: text</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>INPUT: SHOW PASS
-Type: password</t>
-  </si>
-  <si>
-    <t>Click show/hide nhập lại password icon sẽ hiển thị những ký tự đã nhập hoặc ẩn đi</t>
+    <t>Login un-successful</t>
   </si>
 </sst>
 </file>
@@ -852,7 +832,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1897,103 +1877,11 @@
       <c r="D56" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E56" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57">
-        <v>24</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="F56" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" t="s">
         <v>136</v>
-      </c>
-      <c r="C57" t="s">
-        <v>137</v>
-      </c>
-      <c r="D57" t="s">
-        <v>138</v>
-      </c>
-      <c r="E57" t="s">
-        <v>138</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58">
-        <v>25</v>
-      </c>
-      <c r="B58" t="s">
-        <v>136</v>
-      </c>
-      <c r="C58" t="s">
-        <v>137</v>
-      </c>
-      <c r="D58" t="s">
-        <v>140</v>
-      </c>
-      <c r="E58" t="s">
-        <v>140</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59">
-        <v>26</v>
-      </c>
-      <c r="B59" t="s">
-        <v>142</v>
-      </c>
-      <c r="C59" t="s">
-        <v>137</v>
-      </c>
-      <c r="D59" t="s">
-        <v>138</v>
-      </c>
-      <c r="E59" t="s">
-        <v>138</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60">
-        <v>27</v>
-      </c>
-      <c r="B60" t="s">
-        <v>142</v>
-      </c>
-      <c r="C60" t="s">
-        <v>137</v>
-      </c>
-      <c r="D60" t="s">
-        <v>140</v>
-      </c>
-      <c r="E60" t="s">
-        <v>140</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G60" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2001,7 +1889,6 @@
     <hyperlink ref="D55" r:id="rId1"/>
     <hyperlink ref="E55" r:id="rId2"/>
     <hyperlink ref="D56" r:id="rId3"/>
-    <hyperlink ref="E56" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Template/src/reports/SIGN UP FLOW FROM HOME PAGE/SIGN UP FLOW FROM HOME PAGE [TEMP].xlsx
+++ b/Template/src/reports/SIGN UP FLOW FROM HOME PAGE/SIGN UP FLOW FROM HOME PAGE [TEMP].xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="149">
   <si>
     <t>Result of SIGN UP FLOW FROM HOME PAGE</t>
   </si>
@@ -22,13 +22,13 @@
     <t>Start</t>
   </si>
   <si>
-    <t>2021-04-01 17:29:21</t>
+    <t>2021-04-02 10:00:50</t>
   </si>
   <si>
     <t>Account Test</t>
   </si>
   <si>
-    <t>Username: tuananhle20210401172928, pass: 123456</t>
+    <t>Username: tuananhle20210402100056, pass: 123456</t>
   </si>
   <si>
     <t>#</t>
@@ -104,6 +104,363 @@
   </si>
   <si>
     <t>abcdefghijklnmopqrstuvwxyz123</t>
+  </si>
+  <si>
+    <t>Họ và tên với ký tự đặc biệt</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>6-1</t>
+  </si>
+  <si>
+    <t>!@#$%^&amp;*() ;:'"`</t>
+  </si>
+  <si>
+    <t>6-2</t>
+  </si>
+  <si>
+    <t>~&gt;.&lt;,{}[]\/-=+</t>
+  </si>
+  <si>
+    <t>Không nhập email</t>
+  </si>
+  <si>
+    <t>Có thể click khi chưa nhập email</t>
+  </si>
+  <si>
+    <t>Nhập email chứa ký tự đặc biệt</t>
+  </si>
+  <si>
+    <t>!@#$%^&amp;*() ;:'"`~&gt;.&lt;,{}[]\/-=+ấáđêế</t>
+  </si>
+  <si>
+    <t>9-1</t>
+  </si>
+  <si>
+    <t>anh.letuan!@hikosolution.com</t>
+  </si>
+  <si>
+    <t>Địa chỉ email không hợp lệ</t>
+  </si>
+  <si>
+    <t>Không hiển thị lỗi khi nhập !</t>
+  </si>
+  <si>
+    <t>9-2</t>
+  </si>
+  <si>
+    <t>anh.letuan@@hikosolution.com</t>
+  </si>
+  <si>
+    <t>9-3</t>
+  </si>
+  <si>
+    <t>anh.letuan#@hikosolution.com</t>
+  </si>
+  <si>
+    <t>Không hiển thị lỗi khi nhập #</t>
+  </si>
+  <si>
+    <t>9-4</t>
+  </si>
+  <si>
+    <t>anh.letuan$@hikosolution.com</t>
+  </si>
+  <si>
+    <t>Không hiển thị lỗi khi nhập $</t>
+  </si>
+  <si>
+    <t>9-5</t>
+  </si>
+  <si>
+    <t>anh.letuan%@hikosolution.com</t>
+  </si>
+  <si>
+    <t>Không hiển thị lỗi khi nhập %</t>
+  </si>
+  <si>
+    <t>9-6</t>
+  </si>
+  <si>
+    <t>anh.letuan^@hikosolution.com</t>
+  </si>
+  <si>
+    <t>Không hiển thị lỗi khi nhập ^</t>
+  </si>
+  <si>
+    <t>9-7</t>
+  </si>
+  <si>
+    <t>anh.letuan&amp;@hikosolution.com</t>
+  </si>
+  <si>
+    <t>Không hiển thị lỗi khi nhập &amp;</t>
+  </si>
+  <si>
+    <t>9-8</t>
+  </si>
+  <si>
+    <t>anh.letuan*@hikosolution.com</t>
+  </si>
+  <si>
+    <t>Không hiển thị lỗi khi nhập *</t>
+  </si>
+  <si>
+    <t>9-9</t>
+  </si>
+  <si>
+    <t>anh.letuan(@hikosolution.com</t>
+  </si>
+  <si>
+    <t>9-10</t>
+  </si>
+  <si>
+    <t>anh.letuan)@hikosolution.com</t>
+  </si>
+  <si>
+    <t>9-11</t>
+  </si>
+  <si>
+    <t>anh.letuan @hikosolution.com</t>
+  </si>
+  <si>
+    <t>9-12</t>
+  </si>
+  <si>
+    <t>anh.letuan;@hikosolution.com</t>
+  </si>
+  <si>
+    <t>9-13</t>
+  </si>
+  <si>
+    <t>anh.letuan:@hikosolution.com</t>
+  </si>
+  <si>
+    <t>9-14</t>
+  </si>
+  <si>
+    <t>anh.letuan'@hikosolution.com</t>
+  </si>
+  <si>
+    <t>Không hiển thị lỗi khi nhập '</t>
+  </si>
+  <si>
+    <t>9-15</t>
+  </si>
+  <si>
+    <t>anh.letuan"@hikosolution.com</t>
+  </si>
+  <si>
+    <t>9-16</t>
+  </si>
+  <si>
+    <t>anh.letuan`@hikosolution.com</t>
+  </si>
+  <si>
+    <t>Không hiển thị lỗi khi nhập `</t>
+  </si>
+  <si>
+    <t>9-17</t>
+  </si>
+  <si>
+    <t>anh.letuan~@hikosolution.com</t>
+  </si>
+  <si>
+    <t>Không hiển thị lỗi khi nhập ~</t>
+  </si>
+  <si>
+    <t>9-18</t>
+  </si>
+  <si>
+    <t>anh.letuan&gt;@hikosolution.com</t>
+  </si>
+  <si>
+    <t>9-19</t>
+  </si>
+  <si>
+    <t>anh.letuan.@hikosolution.com</t>
+  </si>
+  <si>
+    <t>9-20</t>
+  </si>
+  <si>
+    <t>anh.letuan&lt;@hikosolution.com</t>
+  </si>
+  <si>
+    <t>9-21</t>
+  </si>
+  <si>
+    <t>anh.letuan,@hikosolution.com</t>
+  </si>
+  <si>
+    <t>9-22</t>
+  </si>
+  <si>
+    <t>anh.letuan{@hikosolution.com</t>
+  </si>
+  <si>
+    <t>Không hiển thị lỗi khi nhập {</t>
+  </si>
+  <si>
+    <t>9-23</t>
+  </si>
+  <si>
+    <t>anh.letuan}@hikosolution.com</t>
+  </si>
+  <si>
+    <t>Không hiển thị lỗi khi nhập }</t>
+  </si>
+  <si>
+    <t>9-24</t>
+  </si>
+  <si>
+    <t>anh.letuan[@hikosolution.com</t>
+  </si>
+  <si>
+    <t>Không hiển thị lỗi khi nhập [</t>
+  </si>
+  <si>
+    <t>9-25</t>
+  </si>
+  <si>
+    <t>anh.letuan]@hikosolution.com</t>
+  </si>
+  <si>
+    <t>Không hiển thị lỗi khi nhập ]</t>
+  </si>
+  <si>
+    <t>9-26</t>
+  </si>
+  <si>
+    <t>anh.letuan\@hikosolution.com</t>
+  </si>
+  <si>
+    <t>Không hiển thị lỗi khi nhập \</t>
+  </si>
+  <si>
+    <t>9-27</t>
+  </si>
+  <si>
+    <t>anh.letuan/@hikosolution.com</t>
+  </si>
+  <si>
+    <t>Không hiển thị lỗi khi nhập /</t>
+  </si>
+  <si>
+    <t>9-28</t>
+  </si>
+  <si>
+    <t>anh.letuan-@hikosolution.com</t>
+  </si>
+  <si>
+    <t>Không hiển thị lỗi khi nhập -</t>
+  </si>
+  <si>
+    <t>9-29</t>
+  </si>
+  <si>
+    <t>anh.letuan=@hikosolution.com</t>
+  </si>
+  <si>
+    <t>Không hiển thị lỗi khi nhập =</t>
+  </si>
+  <si>
+    <t>9-30</t>
+  </si>
+  <si>
+    <t>anh.letuan+@hikosolution.com</t>
+  </si>
+  <si>
+    <t>Không hiển thị lỗi khi nhập +</t>
+  </si>
+  <si>
+    <t>9-31</t>
+  </si>
+  <si>
+    <t>anh.letuanấ@hikosolution.com</t>
+  </si>
+  <si>
+    <t>9-32</t>
+  </si>
+  <si>
+    <t>anh.letuaná@hikosolution.com</t>
+  </si>
+  <si>
+    <t>9-33</t>
+  </si>
+  <si>
+    <t>anh.letuanđ@hikosolution.com</t>
+  </si>
+  <si>
+    <t>9-34</t>
+  </si>
+  <si>
+    <t>anh.letuanê@hikosolution.com</t>
+  </si>
+  <si>
+    <t>9-35</t>
+  </si>
+  <si>
+    <t>anh.letuanế@hikosolution.com</t>
+  </si>
+  <si>
+    <t>Nhập email hợp lệ</t>
+  </si>
+  <si>
+    <t>anh.lt@hikosolution.com</t>
+  </si>
+  <si>
+    <t>Nhập email không đúng format</t>
+  </si>
+  <si>
+    <t>11-1</t>
+  </si>
+  <si>
+    <t>Thiếu anh.le</t>
+  </si>
+  <si>
+    <t>11-2</t>
+  </si>
+  <si>
+    <t>Thiếu @</t>
+  </si>
+  <si>
+    <t>11-3</t>
+  </si>
+  <si>
+    <t>Thiếu hikosolution</t>
+  </si>
+  <si>
+    <t>11-4</t>
+  </si>
+  <si>
+    <t>Thiếu .com</t>
+  </si>
+  <si>
+    <t>Click xác thực email bật pop Xác thực email</t>
+  </si>
+  <si>
+    <t>Không thể click để hiển thị popup khi điền email đúng format</t>
+  </si>
+  <si>
+    <t>Click xác thực email bật pop Xác thực số điện thoại</t>
+  </si>
+  <si>
+    <t>Họ và Tên</t>
+  </si>
+  <si>
+    <t>Nhập họ và tên</t>
+  </si>
+  <si>
+    <t>Nhập họ &amp; tên</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Nhập email của bạn</t>
   </si>
 </sst>
 </file>
@@ -140,7 +497,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,6 +528,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF78ECF5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -191,12 +554,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,7 +855,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -635,6 +999,1115 @@
         <v>23</v>
       </c>
     </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="5">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="5">
+        <v>9</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" t="s">
+        <v>42</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" t="s">
+        <v>42</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" t="s">
+        <v>109</v>
+      </c>
+      <c r="D43" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" t="s">
+        <v>42</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46" t="s">
+        <v>42</v>
+      </c>
+      <c r="E46" t="s">
+        <v>42</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>120</v>
+      </c>
+      <c r="B47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" t="s">
+        <v>121</v>
+      </c>
+      <c r="D47" t="s">
+        <v>42</v>
+      </c>
+      <c r="E47" t="s">
+        <v>42</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G47" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" t="s">
+        <v>123</v>
+      </c>
+      <c r="D48" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" t="s">
+        <v>42</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G48" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>124</v>
+      </c>
+      <c r="B49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" t="s">
+        <v>125</v>
+      </c>
+      <c r="D49" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" t="s">
+        <v>42</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G49" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>126</v>
+      </c>
+      <c r="B50" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" t="s">
+        <v>127</v>
+      </c>
+      <c r="D50" t="s">
+        <v>42</v>
+      </c>
+      <c r="E50" t="s">
+        <v>42</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>128</v>
+      </c>
+      <c r="B51" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" t="s">
+        <v>129</v>
+      </c>
+      <c r="D51" t="s">
+        <v>42</v>
+      </c>
+      <c r="E51" t="s">
+        <v>42</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G51" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>10</v>
+      </c>
+      <c r="B52" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" t="s">
+        <v>131</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="5">
+        <v>11</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" t="s">
+        <v>134</v>
+      </c>
+      <c r="C54" t="s">
+        <v>129</v>
+      </c>
+      <c r="D54" t="s">
+        <v>42</v>
+      </c>
+      <c r="E54" t="s">
+        <v>42</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>135</v>
+      </c>
+      <c r="B55" t="s">
+        <v>136</v>
+      </c>
+      <c r="C55" t="s">
+        <v>129</v>
+      </c>
+      <c r="D55" t="s">
+        <v>42</v>
+      </c>
+      <c r="E55" t="s">
+        <v>42</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>137</v>
+      </c>
+      <c r="B56" t="s">
+        <v>138</v>
+      </c>
+      <c r="C56" t="s">
+        <v>129</v>
+      </c>
+      <c r="D56" t="s">
+        <v>42</v>
+      </c>
+      <c r="E56" t="s">
+        <v>42</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>139</v>
+      </c>
+      <c r="B57" t="s">
+        <v>140</v>
+      </c>
+      <c r="C57" t="s">
+        <v>129</v>
+      </c>
+      <c r="D57" t="s">
+        <v>42</v>
+      </c>
+      <c r="E57" t="s">
+        <v>42</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>12</v>
+      </c>
+      <c r="B58" t="s">
+        <v>130</v>
+      </c>
+      <c r="C58" t="s">
+        <v>131</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>13</v>
+      </c>
+      <c r="B59" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" t="s">
+        <v>131</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>14</v>
+      </c>
+      <c r="B60" t="s">
+        <v>143</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>15</v>
+      </c>
+      <c r="B61" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" t="s">
+        <v>31</v>
+      </c>
+      <c r="D61" t="s">
+        <v>145</v>
+      </c>
+      <c r="E61" t="s">
+        <v>146</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>16</v>
+      </c>
+      <c r="B62" t="s">
+        <v>147</v>
+      </c>
+      <c r="C62" t="s">
+        <v>31</v>
+      </c>
+      <c r="D62" t="s">
+        <v>148</v>
+      </c>
+      <c r="E62" t="s">
+        <v>148</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
